--- a/FE12/Cell Modeling/FE12_P42A_EntropicCoefficient_notavgOCV.xlsx
+++ b/FE12/Cell Modeling/FE12_P42A_EntropicCoefficient_notavgOCV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laptop\OneDrive - University of California, Davis\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad310da11adffc61/Documentos/GitHub/FE12-Accumulator/FE12/Cell Modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5390565A-ADB2-4860-8D55-CE8517E3BC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="13_ncr:1_{5390565A-ADB2-4860-8D55-CE8517E3BC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8199234D-A817-40A9-BF4A-7946D7128FEA}"/>
   <bookViews>
-    <workbookView xWindow="7170" yWindow="2985" windowWidth="21600" windowHeight="14055" xr2:uid="{31AE9364-1268-41AB-B668-B2DC75F79138}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{31AE9364-1268-41AB-B668-B2DC75F79138}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,63 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+  <si>
+    <t>Slope Method</t>
+  </si>
+  <si>
+    <t>Entropic Coeff</t>
+  </si>
+  <si>
+    <t>Y-intercept</t>
+  </si>
+  <si>
+    <t>Before Pulse</t>
+  </si>
+  <si>
+    <t>After Pulse</t>
+  </si>
+  <si>
+    <t>Least Square Method</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -81,9 +134,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -136,11 +196,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>voltage at moment of </a:t>
+              <a:t>Voltage at Moment of </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>pulse discharge</a:t>
+              <a:t>Pulse Discharge</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -326,6 +386,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>SOC (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -388,6 +510,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Entropic Coefficients (mV/K)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -516,11 +700,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>voltage one time point</a:t>
+              <a:t>Voltage One Time Point</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> before pulse discharge</a:t>
+              <a:t> Before Pulse Discharge</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -634,7 +818,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.2015947614397312E-2</c:v>
+                  <c:v>9.2015947614600316E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.14163425990513392</c:v>
@@ -727,7 +911,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>SOC %</a:t>
+                  <a:t>SOC (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -976,6 +1160,392 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>100% SOC Entropic Coefficient </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.8438320209973755E-2"/>
+                  <c:y val="0.24822652376786236"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>313</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.19134426116943</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1919984817504883</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1927633285522461</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF4D-434B-A62D-366C968FD88B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="890306304"/>
+        <c:axId val="890303424"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="890306304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="890303424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="890303424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="890306304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1056,6 +1626,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2088,20 +2698,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>61911</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>24765</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>234315</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2128,16 +3254,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>601979</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>105726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2157,6 +3283,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>725805</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8C490A1-0A59-D059-73A5-47CE3AB61A65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2482,15 +3644,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB795AD-713B-444C-8C0B-22AC1AA478F9}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B1">
         <v>298</v>
       </c>
@@ -2500,8 +3673,24 @@
       <c r="D1">
         <v>313</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
@@ -2522,8 +3711,19 @@
         <f>E2*1000</f>
         <v>1.2240546090262276</v>
       </c>
+      <c r="H2" cm="1">
+        <f t="array" ref="H2:I2">LINEST(B2:D2, $B$1:$D$1,TRUE,FALSE)</f>
+        <v>1.2240546090262277E-3</v>
+      </c>
+      <c r="I2">
+        <v>3.7466166632516043</v>
+      </c>
+      <c r="J2">
+        <f>H2*1000</f>
+        <v>1.2240546090262276</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>90</v>
       </c>
@@ -2544,8 +3744,19 @@
         <f t="shared" ref="F3:F23" si="1">E3*1000</f>
         <v>1.1276790073939729</v>
       </c>
+      <c r="H3" cm="1">
+        <f t="array" ref="H3:I3">LINEST(B3:D3, $B$1:$D$1,TRUE,FALSE)</f>
+        <v>1.1276790073939734E-3</v>
+      </c>
+      <c r="I3">
+        <v>3.6705771037510457</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J11" si="2">H3*1000</f>
+        <v>1.1276790073939733</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>80</v>
       </c>
@@ -2566,8 +3777,19 @@
         <f t="shared" si="1"/>
         <v>1.1050633021763394</v>
       </c>
+      <c r="H4" cm="1">
+        <f t="array" ref="H4:I4">LINEST(B4:D4, $B$1:$D$1,TRUE,FALSE)</f>
+        <v>1.1050633021763394E-3</v>
+      </c>
+      <c r="I4">
+        <v>3.6172460011073517</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>1.1050633021763394</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>70</v>
       </c>
@@ -2588,8 +3810,19 @@
         <f t="shared" si="1"/>
         <v>1.1065074375697543</v>
       </c>
+      <c r="H5" cm="1">
+        <f t="array" ref="H5:I5">LINEST(B5:D5, $B$1:$D$1,TRUE,FALSE)</f>
+        <v>1.1065074375697546E-3</v>
+      </c>
+      <c r="I5">
+        <v>3.517517716544015</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>1.1065074375697546</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>60</v>
       </c>
@@ -2610,8 +3843,19 @@
         <f t="shared" si="1"/>
         <v>1.2569972446986608</v>
       </c>
+      <c r="H6" cm="1">
+        <f t="array" ref="H6:I6">LINEST(B6:D6, $B$1:$D$1,TRUE,FALSE)</f>
+        <v>1.2569972446986608E-3</v>
+      </c>
+      <c r="I6">
+        <v>3.3784277507237026</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>1.2569972446986608</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50</v>
       </c>
@@ -2632,8 +3876,19 @@
         <f t="shared" si="1"/>
         <v>1.2143543788364954</v>
       </c>
+      <c r="H7" cm="1">
+        <f t="array" ref="H7:I7">LINEST(B7:D7, $B$1:$D$1,TRUE,FALSE)</f>
+        <v>1.2143543788364955E-3</v>
+      </c>
+      <c r="I7">
+        <v>3.2979817799159457</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>1.2143543788364954</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>40</v>
       </c>
@@ -2654,8 +3909,19 @@
         <f t="shared" si="1"/>
         <v>1.166725158691406</v>
       </c>
+      <c r="H8" cm="1">
+        <f t="array" ref="H8:I8">LINEST(B8:D8, $B$1:$D$1,TRUE,FALSE)</f>
+        <v>1.1667251586914066E-3</v>
+      </c>
+      <c r="I8">
+        <v>3.2311933517456053</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>1.1667251586914065</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>30</v>
       </c>
@@ -2676,8 +3942,19 @@
         <f t="shared" si="1"/>
         <v>0.82738058907645073</v>
       </c>
+      <c r="H9" cm="1">
+        <f t="array" ref="H9:I9">LINEST(B9:D9, $B$1:$D$1,TRUE,FALSE)</f>
+        <v>8.2738058907645099E-4</v>
+      </c>
+      <c r="I9">
+        <v>3.249763080051967</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>0.82738058907645096</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20</v>
       </c>
@@ -2698,8 +3975,19 @@
         <f t="shared" si="1"/>
         <v>1.0888508387974332</v>
       </c>
+      <c r="H10" cm="1">
+        <f t="array" ref="H10:I10">LINEST(B10:D10, $B$1:$D$1,TRUE,FALSE)</f>
+        <v>1.0888508387974329E-3</v>
+      </c>
+      <c r="I10">
+        <v>3.0645326069423131</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>1.0888508387974329</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2720,8 +4008,22 @@
         <f t="shared" si="1"/>
         <v>2.2537231445312504</v>
       </c>
+      <c r="H11" cm="1">
+        <f t="array" ref="H11:I11">LINEST(B11:D11, $B$1:$D$1,TRUE,FALSE)</f>
+        <v>2.2537231445312503E-3</v>
+      </c>
+      <c r="I11">
+        <v>2.5291818618774409</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>2.2537231445312504</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="B13">
         <v>298</v>
       </c>
@@ -2731,13 +4033,28 @@
       <c r="D13">
         <v>313</v>
       </c>
+      <c r="E13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>100</v>
       </c>
       <c r="B14" s="1">
-        <v>4.1913442611694336</v>
+        <v>4.19134426116943</v>
       </c>
       <c r="C14" s="1">
         <v>4.1919984817504883</v>
@@ -2747,14 +4064,25 @@
       </c>
       <c r="E14">
         <f>SLOPE(B14:D14,$B$1:$D$1)</f>
-        <v>9.2015947614397316E-5</v>
+        <v>9.201594761460032E-5</v>
       </c>
       <c r="F14">
         <f>E14*1000</f>
-        <v>9.2015947614397312E-2</v>
+        <v>9.2015947614600316E-2</v>
+      </c>
+      <c r="H14" cm="1">
+        <f t="array" ref="H14:I14">LINEST(B14:D14, $B$13:$D$13,TRUE,FALSE)</f>
+        <v>9.201594761460032E-5</v>
+      </c>
+      <c r="I14">
+        <v>4.1640011651174733</v>
+      </c>
+      <c r="J14">
+        <f>H14*1000</f>
+        <v>9.2015947614600316E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>90</v>
       </c>
@@ -2775,8 +4103,19 @@
         <f t="shared" si="1"/>
         <v>0.14163425990513392</v>
       </c>
+      <c r="H15" cm="1">
+        <f t="array" ref="H15:I15">LINEST(B15:D15, $B$13:$D$13,TRUE,FALSE)</f>
+        <v>1.4163425990513395E-4</v>
+      </c>
+      <c r="I15">
+        <v>4.038082422528948</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J15:J23" si="3">H15*1000</f>
+        <v>0.14163425990513395</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>80</v>
       </c>
@@ -2797,8 +4136,19 @@
         <f t="shared" si="1"/>
         <v>0.21392277308872767</v>
       </c>
+      <c r="H16" cm="1">
+        <f t="array" ref="H16:I16">LINEST(B16:D16, $B$13:$D$13,TRUE,FALSE)</f>
+        <v>2.1392277308872765E-4</v>
+      </c>
+      <c r="I16">
+        <v>3.9555529730660575</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>0.21392277308872765</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>70</v>
       </c>
@@ -2819,8 +4169,19 @@
         <f t="shared" si="1"/>
         <v>0.21956307547433035</v>
       </c>
+      <c r="H17" cm="1">
+        <f t="array" ref="H17:I17">LINEST(B17:D17, $B$13:$D$13,TRUE,FALSE)</f>
+        <v>2.195630754743303E-4</v>
+      </c>
+      <c r="I17">
+        <v>3.8541374479021346</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>0.21956307547433029</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>60</v>
       </c>
@@ -2841,8 +4202,19 @@
         <f>E18*1000</f>
         <v>0.3815787179129464</v>
       </c>
+      <c r="H18" cm="1">
+        <f t="array" ref="H18:I18">LINEST(B18:D18, $B$13:$D$13,TRUE,FALSE)</f>
+        <v>3.8157871791294636E-4</v>
+      </c>
+      <c r="I18">
+        <v>3.7110972540719169</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>0.38157871791294634</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>50</v>
       </c>
@@ -2863,8 +4235,19 @@
         <f t="shared" si="1"/>
         <v>0.3349031720842634</v>
       </c>
+      <c r="H19" cm="1">
+        <f t="array" ref="H19:I19">LINEST(B19:D19, $B$13:$D$13,TRUE,FALSE)</f>
+        <v>3.349031720842634E-4</v>
+      </c>
+      <c r="I19">
+        <v>3.6316535677228656</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>0.3349031720842634</v>
+      </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>40</v>
       </c>
@@ -2885,8 +4268,19 @@
         <f t="shared" si="1"/>
         <v>0.26542118617466515</v>
       </c>
+      <c r="H20" cm="1">
+        <f t="array" ref="H20:I20">LINEST(B20:D20, $B$13:$D$13,TRUE,FALSE)</f>
+        <v>2.6542118617466515E-4</v>
+      </c>
+      <c r="I20">
+        <v>3.5714587347848075</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>0.26542118617466515</v>
+      </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>30</v>
       </c>
@@ -2907,8 +4301,19 @@
         <f t="shared" si="1"/>
         <v>-9.613037109375E-2</v>
       </c>
+      <c r="H21" cm="1">
+        <f t="array" ref="H21:I21">LINEST(B21:D21, $B$13:$D$13,TRUE,FALSE)</f>
+        <v>-9.6130371093750011E-5</v>
+      </c>
+      <c r="I21">
+        <v>3.5970605850219726</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>-9.6130371093750014E-2</v>
+      </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2929,8 +4334,19 @@
         <f t="shared" si="1"/>
         <v>0.1476015363420759</v>
       </c>
+      <c r="H22" cm="1">
+        <f t="array" ref="H22:I22">LINEST(B22:D22, $B$13:$D$13,TRUE,FALSE)</f>
+        <v>1.4760153634207589E-4</v>
+      </c>
+      <c r="I22">
+        <v>3.4182605470929825</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>0.1476015363420759</v>
+      </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10</v>
       </c>
@@ -2951,9 +4367,21 @@
         <f t="shared" si="1"/>
         <v>1.025390625</v>
       </c>
+      <c r="H23" cm="1">
+        <f t="array" ref="H23:I23">LINEST(B23:D23, $B$13:$D$13,TRUE,FALSE)</f>
+        <v>1.025390625E-3</v>
+      </c>
+      <c r="I23">
+        <v>2.9781736373901366</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>1.025390625</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>